--- a/Java8/Scope_Java 8.xlsx
+++ b/Java8/Scope_Java 8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\228120\OneDrive - Cognizant\Academy\2021\Assessment\Existing\Java 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IIHT\CTS\DTP_2021\Java Assessments And Assignments Jan2021\Deliverables\Java8\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7936096C-CAE2-4149-8303-4915ED3902C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>DataTypes, Variables and Arrays</t>
   </si>
@@ -89,11 +90,28 @@
   <si>
     <t>Minor Implementation</t>
   </si>
+  <si>
+    <t>Java 14 Features</t>
+  </si>
+  <si>
+    <t>Record type
+Pattern Matching for instanceof  ( if (x instanceOf String) { x is String here }                                            
+Text blocks                                                                                                                                                     
+Switch expressions
+String API improvements (indent, transform,repeat, isBlank, strip, lines)                                                                                  
+Local-Variable Syntax for Lambda Parameters                                                                                              
+Local-Variable Type Inference                                                                                                           
+Java Platform Module System (modules)                                                                                                       
+Collection factory methods                                                                                                                  
+Stream API improvements (takeWhile, dropWhile, ofNullable, iterate with condition)
+this.getClass().getPackageName()                                                                                                                  
+Interface private methods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +227,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -487,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +534,7 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -527,7 +545,7 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -536,7 +554,7 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -545,7 +563,7 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -554,7 +572,7 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -563,9 +581,18 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="8" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -583,15 +610,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A61BEE1A29DBC468A101778A1CACB5C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2153c93b91400bd0be215662ad8b280b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2aad2a05-c9d9-4c86-a30c-fc844b8841c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6e8659ff1a2217b0c7f2f4616333383" ns2:_="">
     <xsd:import namespace="2aad2a05-c9d9-4c86-a30c-fc844b8841c2"/>
@@ -723,6 +741,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78039C3-76E1-4B04-B828-384E594B1B35}">
   <ds:schemaRefs>
@@ -733,14 +760,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8686A179-7584-47CB-A8D1-D1E99EDACAE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D4E54E-D96A-49BF-83C9-198CF9CC54F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -756,4 +775,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8686A179-7584-47CB-A8D1-D1E99EDACAE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Java8/Scope_Java 8.xlsx
+++ b/Java8/Scope_Java 8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IIHT\CTS\DTP_2021\Java Assessments And Assignments Jan2021\Deliverables\Java8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\228120\OneDrive - Cognizant\Academy\2021\Assessment\Existing\Java 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7936096C-CAE2-4149-8303-4915ED3902C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DataTypes, Variables and Arrays</t>
   </si>
@@ -90,28 +89,11 @@
   <si>
     <t>Minor Implementation</t>
   </si>
-  <si>
-    <t>Java 14 Features</t>
-  </si>
-  <si>
-    <t>Record type
-Pattern Matching for instanceof  ( if (x instanceOf String) { x is String here }                                            
-Text blocks                                                                                                                                                     
-Switch expressions
-String API improvements (indent, transform,repeat, isBlank, strip, lines)                                                                                  
-Local-Variable Syntax for Lambda Parameters                                                                                              
-Local-Variable Type Inference                                                                                                           
-Java Platform Module System (modules)                                                                                                       
-Collection factory methods                                                                                                                  
-Stream API improvements (takeWhile, dropWhile, ofNullable, iterate with condition)
-this.getClass().getPackageName()                                                                                                                  
-Interface private methods</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +209,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -505,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +516,7 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -545,7 +527,7 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -554,7 +536,7 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -563,7 +545,7 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -572,7 +554,7 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -581,18 +563,9 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="166.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -610,6 +583,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A61BEE1A29DBC468A101778A1CACB5C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2153c93b91400bd0be215662ad8b280b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2aad2a05-c9d9-4c86-a30c-fc844b8841c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6e8659ff1a2217b0c7f2f4616333383" ns2:_="">
     <xsd:import namespace="2aad2a05-c9d9-4c86-a30c-fc844b8841c2"/>
@@ -741,15 +723,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78039C3-76E1-4B04-B828-384E594B1B35}">
   <ds:schemaRefs>
@@ -760,6 +733,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8686A179-7584-47CB-A8D1-D1E99EDACAE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D4E54E-D96A-49BF-83C9-198CF9CC54F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -775,12 +756,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8686A179-7584-47CB-A8D1-D1E99EDACAE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>